--- a/bots/crawl_ch/output/office_coop_2022-08-02.xlsx
+++ b/bots/crawl_ch/output/office_coop_2022-08-02.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -4923,50 +4923,50 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3268754</t>
+          <t>4367330</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tesa Powerstrips Kleber gross 10 Stück</t>
+          <t>Zeigetaschen A4 genarbt 60MY 100 Stück</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/tesa-powerstrips-kleber-gross-10-stueck/p/3268754</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/zeigetaschen-a4-genarbt-60my-100-stueck/p/4367330</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>100ST</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Tesa</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.50/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4986,60 +4986,60 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Tesa Powerstrips Kleber gross 10 Stück 4.95 Schweizer Franken</t>
+          <t>Zeigetaschen A4 genarbt 60MY 100 Stück 50% Aktion 5.90 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3267337</t>
+          <t>3268754</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C6 50 Stk.</t>
+          <t>Tesa Powerstrips Kleber gross 10 Stück</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kuvert-c6-50-stk/p/3267337</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/tesa-powerstrips-kleber-gross-10-stueck/p/3268754</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tesa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.50/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5059,39 +5059,39 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C6 50 Stk. 1.95 Schweizer Franken</t>
+          <t>Tesa Powerstrips Kleber gross 10 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4367330</t>
+          <t>3267337</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Zeigetaschen A4 genarbt 60MY 100 Stück</t>
+          <t>Oecoplan Kuvert C6 50 Stk.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/zeigetaschen-a4-genarbt-60my-100-stueck/p/4367330</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kuvert-c6-50-stk/p/3267337</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -5107,12 +5107,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5132,17 +5132,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Zeigetaschen A4 genarbt 60MY 100 Stück 50% Aktion 5.90 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Oecoplan Kuvert C6 50 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6023,153 +6023,133 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4671294</t>
+          <t>5671862</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent</t>
+          <t>IQ Kopierpapier FSC intensiv A4 80g 100 Blatt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/qualite-prix-10-aktenhuellen-a4-120my-transparent/p/4671294</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>10ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/iq-kopierpapier-fsc-intensiv-a4-80g-100-blatt/p/5671862</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>0.19/1ST</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent 1.90 Schweizer Franken</t>
+          <t>IQ Kopierpapier FSC intensiv A4 80g 100 Blatt 8.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3267062</t>
+          <t>4671294</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk.</t>
+          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-packschnur-150-m-beige-1-stk/p/3267062</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/huellen/qualite-prix-10-aktenhuellen-a4-120my-transparent/p/4671294</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0.19/1ST</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>7</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>4.30/1ST</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'huellen']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk. 4.30 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 10 Aktenhüllen A4 120my transparent 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6240,60 +6220,80 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5671862</t>
+          <t>3267062</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IQ Kopierpapier FSC intensiv A4 80g 100 Blatt</t>
+          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/iq-kopierpapier-fsc-intensiv-a4-80g-100-blatt/p/5671862</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-packschnur-150-m-beige-1-stk/p/3267062</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4.30/1ST</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>IQ Kopierpapier FSC intensiv A4 80g 100 Blatt 8.30 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Packschnur 150 m beige 1 Stk. 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6753,60 +6753,80 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3556665</t>
+          <t>3267309</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau</t>
+          <t>Oecoplan Kuvert C5 100 Stk.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/adoc-notizheft-pap-ex-a6-2044104-kariert-blau/p/3556665</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kuvert-c5-100-stk/p/3267309</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>100ST</t>
+        </is>
+      </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>ADOC</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0.07/1ST</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau 5.95 Schweizer Franken</t>
+          <t>Oecoplan Kuvert C5 100 Stk. 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6877,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -6928,80 +6948,60 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3267309</t>
+          <t>3556665</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C5 100 Stk.</t>
+          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kuvert-c5-100-stk/p/3267309</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>100ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/adoc-notizheft-pap-ex-a6-2044104-kariert-blau/p/3556665</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>ADOC</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>0.07/1ST</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Oecoplan Kuvert C5 100 Stk. 6.50 Schweizer Franken</t>
+          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8894,7 +8894,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9160,50 +9160,48 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3268642</t>
+          <t>5043550</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Color 36 Stück</t>
+          <t>Selbstklebe-Etiketten 40x12mm 320 Stück</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/giotto-fasermaler-turbo-color-36-stueck/p/3268642</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/selbstklebe-etiketten-40x12mm-320-stueck/p/5043550</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>36ST</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
+          <t>320ST</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Giotto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>0.30/1ST</t>
+          <t>0.01/1ST</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9213,7 +9211,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -9223,105 +9221,85 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Color 36 Stück 10.95 Schweizer Franken</t>
+          <t>Selbstklebe-Etiketten 40x12mm 320 Stück 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>5043550</t>
+          <t>6467313</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Selbstklebe-Etiketten 40x12mm 320 Stück</t>
+          <t>Ereigniskarte ohne Text2</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/selbstklebe-etiketten-40x12mm-320-stueck/p/5043550</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>320ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-ohne-text2/p/6467313</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>0.01/1ST</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'karten']</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Selbstklebe-Etiketten 40x12mm 320 Stück 1.90 Schweizer Franken</t>
+          <t>Ereigniskarte ohne Text2 4.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6467313</t>
+          <t>7019331</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ereigniskarte ohne Text2</t>
+          <t>Esselte Ordner Set5cm schwarz 3 Stück</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-ohne-text2/p/6467313</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/esselte-ordner-set5cm-schwarz-3-stueck/p/7019331</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -9331,12 +9309,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Esselte</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -9345,68 +9323,90 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'karten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Ereigniskarte ohne Text2 4.90 Schweizer Franken</t>
+          <t>Esselte Ordner Set5cm schwarz 3 Stück 33% Aktion 6.95 Schweizer Franken statt 10.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>7019331</t>
+          <t>3268642</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Esselte Ordner Set5cm schwarz 3 Stück</t>
+          <t>Giotto Fasermaler Turbo Color 36 Stück</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/esselte-ordner-set5cm-schwarz-3-stueck/p/7019331</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/giotto-fasermaler-turbo-color-36-stueck/p/3268642</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>36ST</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Esselte</t>
+          <t>Giotto</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0.30/1ST</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Esselte Ordner Set5cm schwarz 3 Stück 33% Aktion 6.95 Schweizer Franken statt 10.50 Schweizer Franken</t>
+          <t>Giotto Fasermaler Turbo Color 36 Stück 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -10952,7 +10952,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12248,7 +12248,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12350,7 +12350,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12842,7 +12842,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13299,7 +13299,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13824,7 +13824,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14044,7 +14044,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -14950,7 +14950,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15123,7 +15123,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15247,7 +15247,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15351,7 +15351,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15810,7 +15810,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15936,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16007,7 +16007,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16131,7 +16131,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16184,7 +16184,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16487,7 +16487,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16538,7 +16538,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16609,7 +16609,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16822,7 +16822,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17172,7 +17172,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17391,7 +17391,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17462,7 +17462,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17708,7 +17708,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17832,7 +17832,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -17934,7 +17934,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18007,7 +18007,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18151,7 +18151,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18222,7 +18222,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18437,7 +18437,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18488,7 +18488,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18610,7 +18610,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18732,7 +18732,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18803,7 +18803,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19122,7 +19122,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19226,7 +19226,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19277,7 +19277,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19421,7 +19421,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19492,7 +19492,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19563,7 +19563,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19689,7 +19689,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19762,7 +19762,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19868,7 +19868,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19921,7 +19921,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -19992,7 +19992,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20043,7 +20043,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20165,7 +20165,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20216,7 +20216,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20686,7 +20686,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20788,7 +20788,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20894,7 +20894,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -20945,7 +20945,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21016,7 +21016,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21138,7 +21138,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21311,7 +21311,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21382,7 +21382,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21504,7 +21504,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21626,7 +21626,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21677,7 +21677,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21730,7 +21730,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21852,7 +21852,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -21976,7 +21976,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22049,7 +22049,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22191,7 +22191,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22262,7 +22262,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22457,7 +22457,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22528,7 +22528,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22579,7 +22579,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22630,7 +22630,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22783,7 +22783,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22834,7 +22834,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22938,7 +22938,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23042,7 +23042,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23146,7 +23146,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23248,7 +23248,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23299,7 +23299,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23454,7 +23454,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23505,7 +23505,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23556,7 +23556,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23607,7 +23607,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23658,7 +23658,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23709,7 +23709,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23760,7 +23760,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23862,7 +23862,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -23933,7 +23933,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24004,7 +24004,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24146,7 +24146,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24219,7 +24219,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24483,7 +24483,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24534,7 +24534,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24607,7 +24607,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24658,7 +24658,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24851,7 +24851,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24902,7 +24902,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25004,7 +25004,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25055,7 +25055,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25106,7 +25106,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25157,7 +25157,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25208,7 +25208,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25259,7 +25259,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25414,7 +25414,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25465,7 +25465,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25516,7 +25516,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25638,7 +25638,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25760,7 +25760,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25884,7 +25884,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -25988,7 +25988,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26039,7 +26039,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26092,7 +26092,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26145,7 +26145,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26300,7 +26300,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26404,7 +26404,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26508,7 +26508,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26610,7 +26610,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26661,7 +26661,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26712,7 +26712,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26763,7 +26763,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26814,7 +26814,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -26938,7 +26938,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27009,7 +27009,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27111,7 +27111,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27162,7 +27162,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27213,7 +27213,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27284,7 +27284,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27335,7 +27335,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27406,7 +27406,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27477,7 +27477,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27528,7 +27528,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27599,7 +27599,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27650,7 +27650,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27721,7 +27721,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27792,7 +27792,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27845,7 +27845,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27916,7 +27916,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -27967,7 +27967,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28020,7 +28020,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28091,7 +28091,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28162,7 +28162,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28233,7 +28233,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28304,7 +28304,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28357,7 +28357,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28479,7 +28479,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28550,7 +28550,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28601,7 +28601,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28652,7 +28652,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28794,7 +28794,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28865,7 +28865,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28936,7 +28936,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -28989,7 +28989,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29060,7 +29060,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29113,7 +29113,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29184,7 +29184,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29237,7 +29237,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29288,7 +29288,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29335,7 +29335,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29386,7 +29386,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29457,7 +29457,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29528,7 +29528,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29579,7 +29579,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29650,7 +29650,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
@@ -29772,7 +29772,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-08-02 14:44:49</t>
+          <t>2022-08-02 20:57:20</t>
         </is>
       </c>
     </row>
